--- a/Classification_algorithms/K_Nearest_Neighbors/predictions/knn_crossval_summary.xlsx
+++ b/Classification_algorithms/K_Nearest_Neighbors/predictions/knn_crossval_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1282,7 +1282,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CountEncoder</t>
+          <t>CatBoostEncoder</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1291,19 +1291,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D41" t="n">
-        <v>0.241</v>
+        <v>0.334</v>
       </c>
       <c r="E41" t="n">
-        <v>0.03357295097984785</v>
+        <v>0.04575057756344502</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CountEncoder</t>
+          <t>CatBoostEncoder</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42" t="n">
-        <v>0.224</v>
+        <v>0.173</v>
       </c>
       <c r="E42" t="n">
-        <v>0.04080384687697474</v>
+        <v>0.03757510119215435</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CountEncoder</t>
+          <t>CatBoostEncoder</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1333,19 +1333,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D43" t="n">
-        <v>0.226</v>
+        <v>0.341</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01658055437815437</v>
+        <v>0.05390245725336273</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CountEncoder</t>
+          <t>CatBoostEncoder</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1354,19 +1354,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44" t="n">
-        <v>0.238</v>
+        <v>0.325</v>
       </c>
       <c r="E44" t="n">
-        <v>0.02615122778456887</v>
+        <v>0.05335627636382026</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CountEncoder</t>
+          <t>CatBoostEncoder</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1375,19 +1375,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D45" t="n">
-        <v>0.255</v>
+        <v>0.314</v>
       </c>
       <c r="E45" t="n">
-        <v>0.03561797752808989</v>
+        <v>0.06574160407932353</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CountEncoder</t>
+          <t>CatBoostEncoder</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1396,19 +1396,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D46" t="n">
-        <v>0.257</v>
+        <v>0.317</v>
       </c>
       <c r="E46" t="n">
-        <v>0.03507108185455512</v>
+        <v>0.06534833564302879</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CountEncoder</t>
+          <t>CatBoostEncoder</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1417,19 +1417,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D47" t="n">
-        <v>0.251</v>
+        <v>0.339</v>
       </c>
       <c r="E47" t="n">
-        <v>0.03627667098646537</v>
+        <v>0.05506103318820145</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CountEncoder</t>
+          <t>CatBoostEncoder</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1438,19 +1438,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D48" t="n">
-        <v>0.257</v>
+        <v>0.301</v>
       </c>
       <c r="E48" t="n">
-        <v>0.05119762512640123</v>
+        <v>0.07584139269235592</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CountEncoder</t>
+          <t>CatBoostEncoder</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1459,19 +1459,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>0.206</v>
+        <v>0.162</v>
       </c>
       <c r="E49" t="n">
-        <v>0.02830866116757441</v>
+        <v>0.02865851427762672</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CountEncoder</t>
+          <t>CatBoostEncoder</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1480,19 +1480,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D50" t="n">
-        <v>0.251</v>
+        <v>0.339</v>
       </c>
       <c r="E50" t="n">
-        <v>0.03627667098646537</v>
+        <v>0.05506103318820145</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CountEncoder</t>
+          <t>CatBoostEncoder</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1513,7 +1513,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CountEncoder</t>
+          <t>CatBoostEncoder</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1534,7 +1534,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CountEncoder</t>
+          <t>CatBoostEncoder</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1543,19 +1543,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D53" t="n">
-        <v>0.251</v>
+        <v>0.339</v>
       </c>
       <c r="E53" t="n">
-        <v>0.03627667098646537</v>
+        <v>0.05506103318820145</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HelmertEncoder</t>
+          <t>CountEncoder</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1564,19 +1564,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D54" t="n">
-        <v>0.319</v>
+        <v>0.241</v>
       </c>
       <c r="E54" t="n">
-        <v>0.05981310931662157</v>
+        <v>0.03357295097984785</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HelmertEncoder</t>
+          <t>CountEncoder</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1585,19 +1585,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>0.347</v>
+        <v>0.224</v>
       </c>
       <c r="E55" t="n">
-        <v>0.07961282715235661</v>
+        <v>0.04080384687697474</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HelmertEncoder</t>
+          <t>CountEncoder</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D56" t="n">
-        <v>0.383</v>
+        <v>0.226</v>
       </c>
       <c r="E56" t="n">
-        <v>0.07060099939221158</v>
+        <v>0.01658055437815437</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HelmertEncoder</t>
+          <t>CountEncoder</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1627,19 +1627,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D57" t="n">
-        <v>0.325</v>
+        <v>0.238</v>
       </c>
       <c r="E57" t="n">
-        <v>0.06331162404201686</v>
+        <v>0.02615122778456887</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HelmertEncoder</t>
+          <t>CountEncoder</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1648,19 +1648,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D58" t="n">
-        <v>0.37</v>
+        <v>0.255</v>
       </c>
       <c r="E58" t="n">
-        <v>0.08541953731924154</v>
+        <v>0.03561797752808989</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HelmertEncoder</t>
+          <t>CountEncoder</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1669,19 +1669,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D59" t="n">
-        <v>0.358</v>
+        <v>0.257</v>
       </c>
       <c r="E59" t="n">
-        <v>0.09050320592317024</v>
+        <v>0.03507108185455512</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HelmertEncoder</t>
+          <t>CountEncoder</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1690,19 +1690,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D60" t="n">
-        <v>0.355</v>
+        <v>0.251</v>
       </c>
       <c r="E60" t="n">
-        <v>0.07538611351688883</v>
+        <v>0.03627667098646537</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HelmertEncoder</t>
+          <t>CountEncoder</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1711,19 +1711,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D61" t="n">
-        <v>0.384</v>
+        <v>0.257</v>
       </c>
       <c r="E61" t="n">
-        <v>0.07049243352262299</v>
+        <v>0.05119762512640123</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>HelmertEncoder</t>
+          <t>CountEncoder</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1732,19 +1732,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D62" t="n">
-        <v>0.341</v>
+        <v>0.206</v>
       </c>
       <c r="E62" t="n">
-        <v>0.07858067955886272</v>
+        <v>0.02830866116757441</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HelmertEncoder</t>
+          <t>CountEncoder</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1753,19 +1753,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D63" t="n">
-        <v>0.355</v>
+        <v>0.251</v>
       </c>
       <c r="E63" t="n">
-        <v>0.07538611351688883</v>
+        <v>0.03627667098646537</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>HelmertEncoder</t>
+          <t>CountEncoder</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1774,19 +1774,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D64" t="n">
-        <v>0.362</v>
+        <v>0.371</v>
       </c>
       <c r="E64" t="n">
-        <v>0.07056880496708284</v>
+        <v>0.04618000309775495</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>HelmertEncoder</t>
+          <t>CountEncoder</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1807,7 +1807,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HelmertEncoder</t>
+          <t>CountEncoder</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1816,19 +1816,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D66" t="n">
-        <v>0.355</v>
+        <v>0.251</v>
       </c>
       <c r="E66" t="n">
-        <v>0.07538611351688883</v>
+        <v>0.03627667098646537</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>OneHotEncoder</t>
+          <t>HashingEncoder</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1837,19 +1837,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D67" t="n">
-        <v>0.33</v>
+        <v>0.335</v>
       </c>
       <c r="E67" t="n">
-        <v>0.04469721671054006</v>
+        <v>0.04538857653757971</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>OneHotEncoder</t>
+          <t>HashingEncoder</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1858,19 +1858,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D68" t="n">
-        <v>0.208</v>
+        <v>0.312</v>
       </c>
       <c r="E68" t="n">
-        <v>0.02893754729986378</v>
+        <v>0.05957674971256606</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>OneHotEncoder</t>
+          <t>HashingEncoder</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1891,7 +1891,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>OneHotEncoder</t>
+          <t>HashingEncoder</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1900,19 +1900,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D70" t="n">
-        <v>0.325</v>
+        <v>0.33</v>
       </c>
       <c r="E70" t="n">
-        <v>0.05406144873222563</v>
+        <v>0.05053045220633539</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>OneHotEncoder</t>
+          <t>HashingEncoder</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1921,19 +1921,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D71" t="n">
-        <v>0.316</v>
+        <v>0.315</v>
       </c>
       <c r="E71" t="n">
-        <v>0.06999959921572244</v>
+        <v>0.05980794963967215</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>OneHotEncoder</t>
+          <t>HashingEncoder</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1948,13 +1948,13 @@
         <v>0.316</v>
       </c>
       <c r="E72" t="n">
-        <v>0.06999959921572244</v>
+        <v>0.06963795815467289</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>OneHotEncoder</t>
+          <t>HashingEncoder</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1975,7 +1975,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>OneHotEncoder</t>
+          <t>HashingEncoder</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1984,19 +1984,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D74" t="n">
-        <v>0.267</v>
+        <v>0.31</v>
       </c>
       <c r="E74" t="n">
-        <v>0.06395459821229353</v>
+        <v>0.06925304291252093</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>OneHotEncoder</t>
+          <t>HashingEncoder</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2005,19 +2005,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D75" t="n">
-        <v>0.192</v>
+        <v>0.325</v>
       </c>
       <c r="E75" t="n">
-        <v>0.02863954113389681</v>
+        <v>0.05790326370464541</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>OneHotEncoder</t>
+          <t>HashingEncoder</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2038,7 +2038,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>OneHotEncoder</t>
+          <t>HashingEncoder</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2047,19 +2047,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>0.207</v>
+        <v>0.338</v>
       </c>
       <c r="E77" t="n">
-        <v>0.03419055152980695</v>
+        <v>0.05079712195793041</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>OneHotEncoder</t>
+          <t>HashingEncoder</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2080,7 +2080,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>OneHotEncoder</t>
+          <t>HashingEncoder</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2101,7 +2101,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>OrdinalEncoder</t>
+          <t>HelmertEncoder</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2110,19 +2110,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D80" t="n">
-        <v>0.338</v>
+        <v>0.319</v>
       </c>
       <c r="E80" t="n">
-        <v>0.05066850994549563</v>
+        <v>0.05981310931662157</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>OrdinalEncoder</t>
+          <t>HelmertEncoder</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2131,19 +2131,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D81" t="n">
-        <v>0.234</v>
+        <v>0.347</v>
       </c>
       <c r="E81" t="n">
-        <v>0.05081948484151818</v>
+        <v>0.07961282715235661</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>OrdinalEncoder</t>
+          <t>HelmertEncoder</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>0.325</v>
+        <v>0.383</v>
       </c>
       <c r="E82" t="n">
-        <v>0.05918931486965973</v>
+        <v>0.07060099939221158</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>OrdinalEncoder</t>
+          <t>HelmertEncoder</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2173,19 +2173,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D83" t="n">
-        <v>0.34</v>
+        <v>0.325</v>
       </c>
       <c r="E83" t="n">
-        <v>0.05182309453448734</v>
+        <v>0.06331162404201686</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>OrdinalEncoder</t>
+          <t>HelmertEncoder</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2194,19 +2194,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>0.311</v>
+        <v>0.37</v>
       </c>
       <c r="E84" t="n">
-        <v>0.05380889895662173</v>
+        <v>0.08541953731924154</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>OrdinalEncoder</t>
+          <t>HelmertEncoder</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2215,19 +2215,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>0.315</v>
+        <v>0.358</v>
       </c>
       <c r="E85" t="n">
-        <v>0.06357234130342355</v>
+        <v>0.09050320592317024</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>OrdinalEncoder</t>
+          <t>HelmertEncoder</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D86" t="n">
-        <v>0.346</v>
+        <v>0.355</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0588856598494809</v>
+        <v>0.07538611351688883</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>OrdinalEncoder</t>
+          <t>HelmertEncoder</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2257,19 +2257,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>0.295</v>
+        <v>0.384</v>
       </c>
       <c r="E87" t="n">
-        <v>0.06945419982258692</v>
+        <v>0.07049243352262299</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>OrdinalEncoder</t>
+          <t>HelmertEncoder</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2278,19 +2278,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D88" t="n">
-        <v>0.2</v>
+        <v>0.341</v>
       </c>
       <c r="E88" t="n">
-        <v>0.02812731588841736</v>
+        <v>0.07858067955886272</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>OrdinalEncoder</t>
+          <t>HelmertEncoder</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2299,19 +2299,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D89" t="n">
-        <v>0.346</v>
+        <v>0.355</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0588856598494809</v>
+        <v>0.07538611351688883</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>OrdinalEncoder</t>
+          <t>HelmertEncoder</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2320,19 +2320,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>0.371</v>
+        <v>0.362</v>
       </c>
       <c r="E90" t="n">
-        <v>0.04618000309775495</v>
+        <v>0.07056880496708284</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>OrdinalEncoder</t>
+          <t>HelmertEncoder</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2353,7 +2353,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>OrdinalEncoder</t>
+          <t>HelmertEncoder</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2362,19 +2362,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D92" t="n">
-        <v>0.346</v>
+        <v>0.355</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0588856598494809</v>
+        <v>0.07538611351688883</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>PolynomialEncoder</t>
+          <t>LeaveOneOutEncoder</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2383,19 +2383,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D93" t="n">
-        <v>0.384</v>
+        <v>0.333</v>
       </c>
       <c r="E93" t="n">
-        <v>0.07049243352262299</v>
+        <v>0.04412298177271214</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>PolynomialEncoder</t>
+          <t>LeaveOneOutEncoder</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2404,19 +2404,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D94" t="n">
-        <v>0.384</v>
+        <v>0.165</v>
       </c>
       <c r="E94" t="n">
-        <v>0.07049243352262299</v>
+        <v>0.0360280158630671</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>PolynomialEncoder</t>
+          <t>LeaveOneOutEncoder</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2437,7 +2437,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>PolynomialEncoder</t>
+          <t>LeaveOneOutEncoder</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2446,19 +2446,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D96" t="n">
-        <v>0.384</v>
+        <v>0.326</v>
       </c>
       <c r="E96" t="n">
-        <v>0.07049243352262299</v>
+        <v>0.04746961632647302</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>PolynomialEncoder</t>
+          <t>LeaveOneOutEncoder</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2467,19 +2467,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D97" t="n">
-        <v>0.384</v>
+        <v>0.315</v>
       </c>
       <c r="E97" t="n">
-        <v>0.07049243352262299</v>
+        <v>0.06640947950302882</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>PolynomialEncoder</t>
+          <t>LeaveOneOutEncoder</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2488,19 +2488,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D98" t="n">
-        <v>0.384</v>
+        <v>0.317</v>
       </c>
       <c r="E98" t="n">
-        <v>0.07049243352262299</v>
+        <v>0.06534833564302879</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>PolynomialEncoder</t>
+          <t>LeaveOneOutEncoder</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2509,19 +2509,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D99" t="n">
-        <v>0.384</v>
+        <v>0.339</v>
       </c>
       <c r="E99" t="n">
-        <v>0.07049243352262299</v>
+        <v>0.05506103318820145</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>PolynomialEncoder</t>
+          <t>LeaveOneOutEncoder</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2530,19 +2530,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D100" t="n">
-        <v>0.384</v>
+        <v>0.29</v>
       </c>
       <c r="E100" t="n">
-        <v>0.07049243352262299</v>
+        <v>0.08393712164783279</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>PolynomialEncoder</t>
+          <t>LeaveOneOutEncoder</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2551,19 +2551,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D101" t="n">
-        <v>0.198</v>
+        <v>0.144</v>
       </c>
       <c r="E101" t="n">
-        <v>0.03214524071214685</v>
+        <v>0.02185366781080278</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>PolynomialEncoder</t>
+          <t>LeaveOneOutEncoder</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2572,19 +2572,19 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D102" t="n">
-        <v>0.384</v>
+        <v>0.339</v>
       </c>
       <c r="E102" t="n">
-        <v>0.07049243352262299</v>
+        <v>0.05506103318820145</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>PolynomialEncoder</t>
+          <t>LeaveOneOutEncoder</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2593,19 +2593,19 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D103" t="n">
-        <v>0.371</v>
+        <v>0.297</v>
       </c>
       <c r="E103" t="n">
-        <v>0.04618000309775495</v>
+        <v>0.05233613038659496</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>PolynomialEncoder</t>
+          <t>LeaveOneOutEncoder</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2626,7 +2626,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>PolynomialEncoder</t>
+          <t>LeaveOneOutEncoder</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2635,19 +2635,19 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D105" t="n">
-        <v>0.384</v>
+        <v>0.339</v>
       </c>
       <c r="E105" t="n">
-        <v>0.07049243352262299</v>
+        <v>0.05506103318820145</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SumEncoder</t>
+          <t>OneHotEncoder</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2659,16 +2659,16 @@
         <v>10</v>
       </c>
       <c r="D106" t="n">
-        <v>0.329</v>
+        <v>0.33</v>
       </c>
       <c r="E106" t="n">
-        <v>0.04575977482420881</v>
+        <v>0.04469721671054006</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SumEncoder</t>
+          <t>OneHotEncoder</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2677,19 +2677,19 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D107" t="n">
-        <v>0.211</v>
+        <v>0.208</v>
       </c>
       <c r="E107" t="n">
-        <v>0.02920390220303086</v>
+        <v>0.02893754729986378</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SumEncoder</t>
+          <t>OneHotEncoder</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2710,7 +2710,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SumEncoder</t>
+          <t>OneHotEncoder</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2731,7 +2731,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SumEncoder</t>
+          <t>OneHotEncoder</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D110" t="n">
-        <v>0.317</v>
+        <v>0.316</v>
       </c>
       <c r="E110" t="n">
-        <v>0.06370987981410497</v>
+        <v>0.06999959921572244</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SumEncoder</t>
+          <t>OneHotEncoder</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2761,19 +2761,19 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D111" t="n">
-        <v>0.317</v>
+        <v>0.316</v>
       </c>
       <c r="E111" t="n">
-        <v>0.07077007715882729</v>
+        <v>0.06999959921572244</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SumEncoder</t>
+          <t>OneHotEncoder</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2794,7 +2794,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SumEncoder</t>
+          <t>OneHotEncoder</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2806,16 +2806,16 @@
         <v>5</v>
       </c>
       <c r="D113" t="n">
-        <v>0.38</v>
+        <v>0.267</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0692264527304008</v>
+        <v>0.06395459821229353</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SumEncoder</t>
+          <t>OneHotEncoder</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2824,19 +2824,19 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D114" t="n">
-        <v>0.196</v>
+        <v>0.192</v>
       </c>
       <c r="E114" t="n">
-        <v>0.02821584742526332</v>
+        <v>0.02863954113389681</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SumEncoder</t>
+          <t>OneHotEncoder</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2857,7 +2857,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SumEncoder</t>
+          <t>OneHotEncoder</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2866,19 +2866,19 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D116" t="n">
-        <v>0.315</v>
+        <v>0.207</v>
       </c>
       <c r="E116" t="n">
-        <v>0.06262890170847063</v>
+        <v>0.03419055152980695</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SumEncoder</t>
+          <t>OneHotEncoder</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2899,7 +2899,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SumEncoder</t>
+          <t>OneHotEncoder</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2914,6 +2914,1371 @@
         <v>0.339</v>
       </c>
       <c r="E118" t="n">
+        <v>0.05506103318820145</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>OrdinalEncoder</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>braycurtis</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>14</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.338</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.05066850994549563</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>OrdinalEncoder</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>canberra</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>5</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.05081948484151818</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>OrdinalEncoder</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>chebyshev</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>19</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.05918931486965973</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>OrdinalEncoder</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>cityblock</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>11</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.05182309453448734</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>OrdinalEncoder</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>correlation</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>8</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.05380889895662173</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>OrdinalEncoder</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>cosine</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>17</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.06357234130342355</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>OrdinalEncoder</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>euclidean</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>12</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.0588856598494809</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>OrdinalEncoder</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>jensenshannon</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>14</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.06945419982258692</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>OrdinalEncoder</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>matching</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>22</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.02812731588841736</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>OrdinalEncoder</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>minkowski</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>12</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.0588856598494809</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>OrdinalEncoder</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>russellrao</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>43</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.04618000309775495</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>OrdinalEncoder</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>seuclidean</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.07049243352262299</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>OrdinalEncoder</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>sqeuclidean</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>12</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.0588856598494809</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>PolynomialEncoder</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>braycurtis</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.07049243352262299</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>PolynomialEncoder</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>canberra</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.07049243352262299</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>PolynomialEncoder</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>chebyshev</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>22</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.05390245725336273</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>PolynomialEncoder</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>cityblock</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.07049243352262299</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>PolynomialEncoder</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>correlation</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.07049243352262299</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>PolynomialEncoder</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>cosine</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.07049243352262299</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>PolynomialEncoder</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>euclidean</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.07049243352262299</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>PolynomialEncoder</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>jensenshannon</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.07049243352262299</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>PolynomialEncoder</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>matching</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>19</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.03214524071214685</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>PolynomialEncoder</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>minkowski</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.07049243352262299</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>PolynomialEncoder</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>russellrao</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>43</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.04618000309775495</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>PolynomialEncoder</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>seuclidean</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.07049243352262299</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>PolynomialEncoder</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>sqeuclidean</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.07049243352262299</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>SumEncoder</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>braycurtis</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>10</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.04575977482420881</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>SumEncoder</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>canberra</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>7</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.02920390220303086</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>SumEncoder</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>chebyshev</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>22</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.05390245725336273</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>SumEncoder</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>cityblock</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>12</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.05406144873222563</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>SumEncoder</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>correlation</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>12</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.06370987981410497</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>SumEncoder</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>cosine</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>53</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.07077007715882729</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>SumEncoder</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>euclidean</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>20</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.05506103318820145</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>SumEncoder</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>jensenshannon</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>5</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.0692264527304008</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>SumEncoder</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>matching</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>12</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.02821584742526332</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>SumEncoder</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>minkowski</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>20</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.05506103318820145</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>SumEncoder</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>russellrao</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>3</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.06262890170847063</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>SumEncoder</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>seuclidean</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.07049243352262299</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>SumEncoder</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>sqeuclidean</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>20</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.05506103318820145</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>TargetEncoder</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>braycurtis</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>12</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.04443849817843955</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>TargetEncoder</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>canberra</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>10</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.0363948022732632</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>TargetEncoder</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>chebyshev</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>22</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.05390245725336273</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>TargetEncoder</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>cityblock</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>14</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.05335627636382026</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>TargetEncoder</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>correlation</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>43</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.06574160407932353</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>TargetEncoder</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>cosine</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>10</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.06534833564302879</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>TargetEncoder</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>euclidean</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>20</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.05506103318820145</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>TargetEncoder</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>jensenshannon</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>13</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.0797390855272397</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>TargetEncoder</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>matching</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>5</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.02865851427762672</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>TargetEncoder</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>minkowski</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>20</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.05506103318820145</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>TargetEncoder</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>russellrao</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>43</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.04618000309775495</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>TargetEncoder</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>seuclidean</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>1</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.07049243352262299</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>TargetEncoder</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>sqeuclidean</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>20</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.05506103318820145</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>WOEEncoder</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>braycurtis</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>10</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.0474465615012454</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>WOEEncoder</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>canberra</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>11</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.03202069776279887</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>WOEEncoder</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>chebyshev</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>22</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.05390245725336273</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>WOEEncoder</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>cityblock</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>13</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.04837758285696074</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>WOEEncoder</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>correlation</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>12</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.06031894216851436</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>WOEEncoder</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>cosine</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>7</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.06227490290269935</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>WOEEncoder</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>euclidean</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>20</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.05506103318820145</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>WOEEncoder</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>jensenshannon</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>3</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.04721515641746045</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>WOEEncoder</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>matching</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>10</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.01784945799054376</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>WOEEncoder</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>minkowski</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>20</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.05506103318820145</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>WOEEncoder</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>russellrao</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>2</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.06779071740282105</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>WOEEncoder</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>seuclidean</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.07049243352262299</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>WOEEncoder</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>sqeuclidean</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>20</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="E183" t="n">
         <v>0.05506103318820145</v>
       </c>
     </row>

--- a/Classification_algorithms/K_Nearest_Neighbors/predictions/knn_crossval_summary.xlsx
+++ b/Classification_algorithms/K_Nearest_Neighbors/predictions/knn_crossval_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E183"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.34</v>
+        <v>0.388</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06323447368156968</v>
+        <v>0.06283658683605221</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.346</v>
+        <v>0.356</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07950280523391788</v>
+        <v>0.08240960918219176</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>0.341</v>
+        <v>0.348</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05390245725336273</v>
+        <v>0.05665521666825546</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.34</v>
+        <v>0.384</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05182309453448734</v>
+        <v>0.06586311375739051</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.307</v>
+        <v>0.353</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07143413989271995</v>
+        <v>0.07222761717824468</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.31</v>
+        <v>0.357</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07418197486169142</v>
+        <v>0.07181251179289658</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" t="n">
-        <v>0.337</v>
+        <v>0.34</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05666854795860219</v>
+        <v>0.0548987660225081</v>
       </c>
     </row>
     <row r="9">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
         <v>0.384</v>
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0.342</v>
+        <v>0.438</v>
       </c>
       <c r="E10" t="n">
-        <v>0.09123307222249409</v>
+        <v>0.1096394914185826</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D11" t="n">
-        <v>0.337</v>
+        <v>0.34</v>
       </c>
       <c r="E11" t="n">
-        <v>0.05666854795860219</v>
+        <v>0.0548987660225081</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D14" t="n">
-        <v>0.337</v>
+        <v>0.34</v>
       </c>
       <c r="E14" t="n">
-        <v>0.05666854795860219</v>
+        <v>0.0548987660225081</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>0.331</v>
+        <v>0.362</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04772777488767579</v>
+        <v>0.05864935349160618</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D16" t="n">
-        <v>0.241</v>
+        <v>0.255</v>
       </c>
       <c r="E16" t="n">
-        <v>0.04213483146067416</v>
+        <v>0.04416302104389792</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D17" t="n">
-        <v>0.341</v>
+        <v>0.348</v>
       </c>
       <c r="E17" t="n">
-        <v>0.05390245725336273</v>
+        <v>0.05665521666825546</v>
       </c>
     </row>
     <row r="18">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>0.326</v>
+        <v>0.356</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04444796693808021</v>
+        <v>0.05662100142584921</v>
       </c>
     </row>
     <row r="19">
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>0.316</v>
+        <v>0.351</v>
       </c>
       <c r="E19" t="n">
-        <v>0.06155463470240271</v>
+        <v>0.06706927204982124</v>
       </c>
     </row>
     <row r="20">
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>0.314</v>
+        <v>0.351</v>
       </c>
       <c r="E20" t="n">
-        <v>0.07336505073622086</v>
+        <v>0.07228635188450706</v>
       </c>
     </row>
     <row r="21">
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D21" t="n">
-        <v>0.339</v>
+        <v>0.344</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05506103318820145</v>
+        <v>0.05088233809577741</v>
       </c>
     </row>
     <row r="22">
@@ -892,13 +892,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D22" t="n">
-        <v>0.288</v>
+        <v>0.315</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0730840506410745</v>
+        <v>0.05692765620691345</v>
       </c>
     </row>
     <row r="23">
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>0.205</v>
+        <v>0.227</v>
       </c>
       <c r="E23" t="n">
-        <v>0.04342793127827211</v>
+        <v>0.04375352649892868</v>
       </c>
     </row>
     <row r="24">
@@ -934,13 +934,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>0.339</v>
+        <v>0.344</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05506103318820145</v>
+        <v>0.05088233809577741</v>
       </c>
     </row>
     <row r="25">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>0.221</v>
+        <v>0.259</v>
       </c>
       <c r="E25" t="n">
-        <v>0.03128811692949868</v>
+        <v>0.05080888440522207</v>
       </c>
     </row>
     <row r="26">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D27" t="n">
-        <v>0.339</v>
+        <v>0.344</v>
       </c>
       <c r="E27" t="n">
-        <v>0.05506103318820145</v>
+        <v>0.05088233809577741</v>
       </c>
     </row>
     <row r="28">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D28" t="n">
-        <v>0.331</v>
+        <v>0.362</v>
       </c>
       <c r="E28" t="n">
-        <v>0.04772777488767579</v>
+        <v>0.05864935349160618</v>
       </c>
     </row>
     <row r="29">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D29" t="n">
-        <v>0.241</v>
+        <v>0.255</v>
       </c>
       <c r="E29" t="n">
-        <v>0.04213483146067416</v>
+        <v>0.04416302104389792</v>
       </c>
     </row>
     <row r="30">
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D30" t="n">
-        <v>0.341</v>
+        <v>0.348</v>
       </c>
       <c r="E30" t="n">
-        <v>0.05390245725336273</v>
+        <v>0.05665521666825546</v>
       </c>
     </row>
     <row r="31">
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>0.326</v>
+        <v>0.356</v>
       </c>
       <c r="E31" t="n">
-        <v>0.04444796693808021</v>
+        <v>0.05662100142584921</v>
       </c>
     </row>
     <row r="32">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>0.316</v>
+        <v>0.351</v>
       </c>
       <c r="E32" t="n">
-        <v>0.06155463470240271</v>
+        <v>0.06706927204982124</v>
       </c>
     </row>
     <row r="33">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>0.314</v>
+        <v>0.351</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07336505073622086</v>
+        <v>0.07228635188450706</v>
       </c>
     </row>
     <row r="34">
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D34" t="n">
-        <v>0.339</v>
+        <v>0.344</v>
       </c>
       <c r="E34" t="n">
-        <v>0.05506103318820145</v>
+        <v>0.05088233809577741</v>
       </c>
     </row>
     <row r="35">
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D35" t="n">
-        <v>0.288</v>
+        <v>0.315</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0730840506410745</v>
+        <v>0.05692765620691345</v>
       </c>
     </row>
     <row r="36">
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>0.205</v>
+        <v>0.227</v>
       </c>
       <c r="E36" t="n">
-        <v>0.04342793127827211</v>
+        <v>0.04375352649892868</v>
       </c>
     </row>
     <row r="37">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D37" t="n">
-        <v>0.339</v>
+        <v>0.344</v>
       </c>
       <c r="E37" t="n">
-        <v>0.05506103318820145</v>
+        <v>0.05088233809577741</v>
       </c>
     </row>
     <row r="38">
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>0.221</v>
+        <v>0.259</v>
       </c>
       <c r="E38" t="n">
-        <v>0.03128811692949868</v>
+        <v>0.05080888440522207</v>
       </c>
     </row>
     <row r="39">
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D40" t="n">
-        <v>0.339</v>
+        <v>0.344</v>
       </c>
       <c r="E40" t="n">
-        <v>0.05506103318820145</v>
+        <v>0.05088233809577741</v>
       </c>
     </row>
     <row r="41">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D41" t="n">
-        <v>0.334</v>
+        <v>0.285</v>
       </c>
       <c r="E41" t="n">
-        <v>0.04575057756344502</v>
+        <v>0.06263803928787388</v>
       </c>
     </row>
     <row r="42">
@@ -1312,13 +1312,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>0.173</v>
+        <v>0.2</v>
       </c>
       <c r="E42" t="n">
-        <v>0.03757510119215435</v>
+        <v>0.04479432064325044</v>
       </c>
     </row>
     <row r="43">
@@ -1333,13 +1333,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D43" t="n">
-        <v>0.341</v>
+        <v>0.296</v>
       </c>
       <c r="E43" t="n">
-        <v>0.05390245725336273</v>
+        <v>0.04399818213769063</v>
       </c>
     </row>
     <row r="44">
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D44" t="n">
-        <v>0.325</v>
+        <v>0.287</v>
       </c>
       <c r="E44" t="n">
-        <v>0.05335627636382026</v>
+        <v>0.07082122685057993</v>
       </c>
     </row>
     <row r="45">
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>0.314</v>
+        <v>0.292</v>
       </c>
       <c r="E45" t="n">
-        <v>0.06574160407932353</v>
+        <v>0.04565948616744394</v>
       </c>
     </row>
     <row r="46">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>0.317</v>
+        <v>0.282</v>
       </c>
       <c r="E46" t="n">
-        <v>0.06534833564302879</v>
+        <v>0.04096770559318238</v>
       </c>
     </row>
     <row r="47">
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D47" t="n">
-        <v>0.339</v>
+        <v>0.289</v>
       </c>
       <c r="E47" t="n">
-        <v>0.05506103318820145</v>
+        <v>0.06186467832196543</v>
       </c>
     </row>
     <row r="48">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D48" t="n">
-        <v>0.301</v>
+        <v>0.241</v>
       </c>
       <c r="E48" t="n">
-        <v>0.07584139269235592</v>
+        <v>0.0476668242540527</v>
       </c>
     </row>
     <row r="49">
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>0.162</v>
+        <v>0.186</v>
       </c>
       <c r="E49" t="n">
-        <v>0.02865851427762672</v>
+        <v>0.0218671431144163</v>
       </c>
     </row>
     <row r="50">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D50" t="n">
-        <v>0.339</v>
+        <v>0.289</v>
       </c>
       <c r="E50" t="n">
-        <v>0.05506103318820145</v>
+        <v>0.06186467832196543</v>
       </c>
     </row>
     <row r="51">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>0.371</v>
+        <v>0.384</v>
       </c>
       <c r="E51" t="n">
-        <v>0.04618000309775495</v>
+        <v>0.07049243352262299</v>
       </c>
     </row>
     <row r="52">
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D53" t="n">
-        <v>0.339</v>
+        <v>0.289</v>
       </c>
       <c r="E53" t="n">
-        <v>0.05506103318820145</v>
+        <v>0.06186467832196543</v>
       </c>
     </row>
     <row r="54">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>0.241</v>
+        <v>0.25</v>
       </c>
       <c r="E54" t="n">
-        <v>0.03357295097984785</v>
+        <v>0.0239031135035566</v>
       </c>
     </row>
     <row r="55">
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D55" t="n">
-        <v>0.224</v>
+        <v>0.236</v>
       </c>
       <c r="E55" t="n">
-        <v>0.04080384687697474</v>
+        <v>0.04259769074261425</v>
       </c>
     </row>
     <row r="56">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D56" t="n">
-        <v>0.226</v>
+        <v>0.24</v>
       </c>
       <c r="E56" t="n">
-        <v>0.01658055437815437</v>
+        <v>0.02514804877508307</v>
       </c>
     </row>
     <row r="57">
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>0.238</v>
+        <v>0.246</v>
       </c>
       <c r="E57" t="n">
-        <v>0.02615122778456887</v>
+        <v>0.02926615821498548</v>
       </c>
     </row>
     <row r="58">
@@ -1690,13 +1690,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D60" t="n">
-        <v>0.251</v>
+        <v>0.258</v>
       </c>
       <c r="E60" t="n">
-        <v>0.03627667098646537</v>
+        <v>0.03557147529321438</v>
       </c>
     </row>
     <row r="61">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>0.257</v>
+        <v>0.268</v>
       </c>
       <c r="E61" t="n">
-        <v>0.05119762512640123</v>
+        <v>0.0550769279868176</v>
       </c>
     </row>
     <row r="62">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>0.206</v>
+        <v>0.227</v>
       </c>
       <c r="E62" t="n">
-        <v>0.02830866116757441</v>
+        <v>0.02147096641250772</v>
       </c>
     </row>
     <row r="63">
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D63" t="n">
-        <v>0.251</v>
+        <v>0.258</v>
       </c>
       <c r="E63" t="n">
-        <v>0.03627667098646537</v>
+        <v>0.03557147529321438</v>
       </c>
     </row>
     <row r="64">
@@ -1816,19 +1816,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D66" t="n">
-        <v>0.251</v>
+        <v>0.258</v>
       </c>
       <c r="E66" t="n">
-        <v>0.03627667098646537</v>
+        <v>0.03557147529321438</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>HashingEncoder</t>
+          <t>GLMMEncoder</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1837,19 +1837,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>0.335</v>
+        <v>0.249</v>
       </c>
       <c r="E67" t="n">
-        <v>0.04538857653757971</v>
+        <v>0.04757882677468704</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>HashingEncoder</t>
+          <t>GLMMEncoder</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1858,19 +1858,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D68" t="n">
-        <v>0.312</v>
+        <v>0.201</v>
       </c>
       <c r="E68" t="n">
-        <v>0.05957674971256606</v>
+        <v>0.04355945328336956</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>HashingEncoder</t>
+          <t>GLMMEncoder</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1879,19 +1879,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D69" t="n">
-        <v>0.341</v>
+        <v>0.261</v>
       </c>
       <c r="E69" t="n">
-        <v>0.05390245725336273</v>
+        <v>0.05501412442540389</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>HashingEncoder</t>
+          <t>GLMMEncoder</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1900,19 +1900,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>0.33</v>
+        <v>0.241</v>
       </c>
       <c r="E70" t="n">
-        <v>0.05053045220633539</v>
+        <v>0.049966547464892</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>HashingEncoder</t>
+          <t>GLMMEncoder</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1921,19 +1921,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>0.315</v>
+        <v>0.284</v>
       </c>
       <c r="E71" t="n">
-        <v>0.05980794963967215</v>
+        <v>0.05302271675606358</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>HashingEncoder</t>
+          <t>GLMMEncoder</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1942,19 +1942,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="D72" t="n">
-        <v>0.316</v>
+        <v>0.263</v>
       </c>
       <c r="E72" t="n">
-        <v>0.06963795815467289</v>
+        <v>0.04850995551060867</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>HashingEncoder</t>
+          <t>GLMMEncoder</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1963,19 +1963,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>0.339</v>
+        <v>0.268</v>
       </c>
       <c r="E73" t="n">
-        <v>0.05506103318820145</v>
+        <v>0.05188697594449675</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>HashingEncoder</t>
+          <t>GLMMEncoder</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1984,19 +1984,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D74" t="n">
-        <v>0.31</v>
+        <v>0.21</v>
       </c>
       <c r="E74" t="n">
-        <v>0.06925304291252093</v>
+        <v>0.0400060488630127</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>HashingEncoder</t>
+          <t>GLMMEncoder</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2005,19 +2005,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>0.325</v>
+        <v>0.186</v>
       </c>
       <c r="E75" t="n">
-        <v>0.05790326370464541</v>
+        <v>0.0218671431144163</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HashingEncoder</t>
+          <t>GLMMEncoder</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2026,19 +2026,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>0.339</v>
+        <v>0.268</v>
       </c>
       <c r="E76" t="n">
-        <v>0.05506103318820145</v>
+        <v>0.05188697594449675</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>HashingEncoder</t>
+          <t>GLMMEncoder</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2047,19 +2047,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>0.338</v>
+        <v>0.384</v>
       </c>
       <c r="E77" t="n">
-        <v>0.05079712195793041</v>
+        <v>0.07049243352262299</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>HashingEncoder</t>
+          <t>GLMMEncoder</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2080,22 +2080,22 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>HashingEncoder</t>
+          <t>HelmertEncoder</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>sqeuclidean</t>
+          <t>braycurtis</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D79" t="n">
-        <v>0.339</v>
+        <v>0.319</v>
       </c>
       <c r="E79" t="n">
-        <v>0.05506103318820145</v>
+        <v>0.05981310931662157</v>
       </c>
     </row>
     <row r="80">
@@ -2106,17 +2106,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>braycurtis</t>
+          <t>canberra</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D80" t="n">
-        <v>0.319</v>
+        <v>0.347</v>
       </c>
       <c r="E80" t="n">
-        <v>0.05981310931662157</v>
+        <v>0.07961282715235661</v>
       </c>
     </row>
     <row r="81">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>canberra</t>
+          <t>chebyshev</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>0.347</v>
+        <v>0.383</v>
       </c>
       <c r="E81" t="n">
-        <v>0.07961282715235661</v>
+        <v>0.07060099939221158</v>
       </c>
     </row>
     <row r="82">
@@ -2148,17 +2148,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>chebyshev</t>
+          <t>cityblock</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D82" t="n">
-        <v>0.383</v>
+        <v>0.325</v>
       </c>
       <c r="E82" t="n">
-        <v>0.07060099939221158</v>
+        <v>0.06331162404201686</v>
       </c>
     </row>
     <row r="83">
@@ -2169,17 +2169,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>cityblock</t>
+          <t>correlation</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>0.325</v>
+        <v>0.37</v>
       </c>
       <c r="E83" t="n">
-        <v>0.06331162404201686</v>
+        <v>0.08541953731924154</v>
       </c>
     </row>
     <row r="84">
@@ -2190,17 +2190,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>correlation</t>
+          <t>cosine</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>0.37</v>
+        <v>0.358</v>
       </c>
       <c r="E84" t="n">
-        <v>0.08541953731924154</v>
+        <v>0.09050320592317024</v>
       </c>
     </row>
     <row r="85">
@@ -2211,17 +2211,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>cosine</t>
+          <t>euclidean</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D85" t="n">
-        <v>0.358</v>
+        <v>0.355</v>
       </c>
       <c r="E85" t="n">
-        <v>0.09050320592317024</v>
+        <v>0.07538611351688883</v>
       </c>
     </row>
     <row r="86">
@@ -2232,17 +2232,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>euclidean</t>
+          <t>jensenshannon</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>0.355</v>
+        <v>0.384</v>
       </c>
       <c r="E86" t="n">
-        <v>0.07538611351688883</v>
+        <v>0.07049243352262299</v>
       </c>
     </row>
     <row r="87">
@@ -2253,17 +2253,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>jensenshannon</t>
+          <t>matching</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D87" t="n">
-        <v>0.384</v>
+        <v>0.341</v>
       </c>
       <c r="E87" t="n">
-        <v>0.07049243352262299</v>
+        <v>0.07858067955886272</v>
       </c>
     </row>
     <row r="88">
@@ -2274,17 +2274,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>matching</t>
+          <t>minkowski</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D88" t="n">
-        <v>0.341</v>
+        <v>0.355</v>
       </c>
       <c r="E88" t="n">
-        <v>0.07858067955886272</v>
+        <v>0.07538611351688883</v>
       </c>
     </row>
     <row r="89">
@@ -2295,17 +2295,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>minkowski</t>
+          <t>russellrao</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>0.355</v>
+        <v>0.362</v>
       </c>
       <c r="E89" t="n">
-        <v>0.07538611351688883</v>
+        <v>0.07056880496708284</v>
       </c>
     </row>
     <row r="90">
@@ -2316,17 +2316,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>russellrao</t>
+          <t>seuclidean</t>
         </is>
       </c>
       <c r="C90" t="n">
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>0.362</v>
+        <v>0.384</v>
       </c>
       <c r="E90" t="n">
-        <v>0.07056880496708284</v>
+        <v>0.07049243352262299</v>
       </c>
     </row>
     <row r="91">
@@ -2337,826 +2337,826 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>seuclidean</t>
+          <t>sqeuclidean</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D91" t="n">
-        <v>0.384</v>
+        <v>0.355</v>
       </c>
       <c r="E91" t="n">
-        <v>0.07049243352262299</v>
+        <v>0.07538611351688883</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>HelmertEncoder</t>
+          <t>OneHotEncoder</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>sqeuclidean</t>
+          <t>braycurtis</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D92" t="n">
-        <v>0.355</v>
+        <v>0.33</v>
       </c>
       <c r="E92" t="n">
-        <v>0.07538611351688883</v>
+        <v>0.04469721671054006</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>LeaveOneOutEncoder</t>
+          <t>OneHotEncoder</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>braycurtis</t>
+          <t>canberra</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" t="n">
-        <v>0.333</v>
+        <v>0.208</v>
       </c>
       <c r="E93" t="n">
-        <v>0.04412298177271214</v>
+        <v>0.02893754729986378</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>LeaveOneOutEncoder</t>
+          <t>OneHotEncoder</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>canberra</t>
+          <t>chebyshev</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D94" t="n">
-        <v>0.165</v>
+        <v>0.341</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0360280158630671</v>
+        <v>0.05390245725336273</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>LeaveOneOutEncoder</t>
+          <t>OneHotEncoder</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>chebyshev</t>
+          <t>cityblock</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D95" t="n">
-        <v>0.341</v>
+        <v>0.325</v>
       </c>
       <c r="E95" t="n">
-        <v>0.05390245725336273</v>
+        <v>0.05406144873222563</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>LeaveOneOutEncoder</t>
+          <t>OneHotEncoder</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>cityblock</t>
+          <t>correlation</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D96" t="n">
-        <v>0.326</v>
+        <v>0.316</v>
       </c>
       <c r="E96" t="n">
-        <v>0.04746961632647302</v>
+        <v>0.06999959921572244</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>LeaveOneOutEncoder</t>
+          <t>OneHotEncoder</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>correlation</t>
+          <t>cosine</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D97" t="n">
-        <v>0.315</v>
+        <v>0.316</v>
       </c>
       <c r="E97" t="n">
-        <v>0.06640947950302882</v>
+        <v>0.06999959921572244</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>LeaveOneOutEncoder</t>
+          <t>OneHotEncoder</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>cosine</t>
+          <t>euclidean</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D98" t="n">
-        <v>0.317</v>
+        <v>0.339</v>
       </c>
       <c r="E98" t="n">
-        <v>0.06534833564302879</v>
+        <v>0.05506103318820145</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>LeaveOneOutEncoder</t>
+          <t>OneHotEncoder</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>euclidean</t>
+          <t>jensenshannon</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>0.339</v>
+        <v>0.267</v>
       </c>
       <c r="E99" t="n">
-        <v>0.05506103318820145</v>
+        <v>0.06395459821229353</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>LeaveOneOutEncoder</t>
+          <t>OneHotEncoder</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>jensenshannon</t>
+          <t>matching</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D100" t="n">
-        <v>0.29</v>
+        <v>0.192</v>
       </c>
       <c r="E100" t="n">
-        <v>0.08393712164783279</v>
+        <v>0.02863954113389681</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>LeaveOneOutEncoder</t>
+          <t>OneHotEncoder</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>matching</t>
+          <t>minkowski</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D101" t="n">
-        <v>0.144</v>
+        <v>0.339</v>
       </c>
       <c r="E101" t="n">
-        <v>0.02185366781080278</v>
+        <v>0.05506103318820145</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>LeaveOneOutEncoder</t>
+          <t>OneHotEncoder</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>minkowski</t>
+          <t>russellrao</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D102" t="n">
-        <v>0.339</v>
+        <v>0.207</v>
       </c>
       <c r="E102" t="n">
-        <v>0.05506103318820145</v>
+        <v>0.03419055152980695</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>LeaveOneOutEncoder</t>
+          <t>OneHotEncoder</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>russellrao</t>
+          <t>seuclidean</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>0.297</v>
+        <v>0.384</v>
       </c>
       <c r="E103" t="n">
-        <v>0.05233613038659496</v>
+        <v>0.07049243352262299</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>LeaveOneOutEncoder</t>
+          <t>OneHotEncoder</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>seuclidean</t>
+          <t>sqeuclidean</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D104" t="n">
-        <v>0.384</v>
+        <v>0.339</v>
       </c>
       <c r="E104" t="n">
-        <v>0.07049243352262299</v>
+        <v>0.05506103318820145</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>LeaveOneOutEncoder</t>
+          <t>OrdinalEncoder</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>sqeuclidean</t>
+          <t>braycurtis</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D105" t="n">
-        <v>0.339</v>
+        <v>0.338</v>
       </c>
       <c r="E105" t="n">
-        <v>0.05506103318820145</v>
+        <v>0.05066850994549563</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>OneHotEncoder</t>
+          <t>OrdinalEncoder</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>braycurtis</t>
+          <t>canberra</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D106" t="n">
-        <v>0.33</v>
+        <v>0.234</v>
       </c>
       <c r="E106" t="n">
-        <v>0.04469721671054006</v>
+        <v>0.05081948484151818</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>OneHotEncoder</t>
+          <t>OrdinalEncoder</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>canberra</t>
+          <t>chebyshev</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D107" t="n">
-        <v>0.208</v>
+        <v>0.325</v>
       </c>
       <c r="E107" t="n">
-        <v>0.02893754729986378</v>
+        <v>0.05918931486965973</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>OneHotEncoder</t>
+          <t>OrdinalEncoder</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>chebyshev</t>
+          <t>cityblock</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D108" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="E108" t="n">
-        <v>0.05390245725336273</v>
+        <v>0.05182309453448734</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>OneHotEncoder</t>
+          <t>OrdinalEncoder</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>cityblock</t>
+          <t>correlation</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D109" t="n">
-        <v>0.325</v>
+        <v>0.311</v>
       </c>
       <c r="E109" t="n">
-        <v>0.05406144873222563</v>
+        <v>0.05380889895662173</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>OneHotEncoder</t>
+          <t>OrdinalEncoder</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>correlation</t>
+          <t>cosine</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D110" t="n">
-        <v>0.316</v>
+        <v>0.315</v>
       </c>
       <c r="E110" t="n">
-        <v>0.06999959921572244</v>
+        <v>0.06357234130342355</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>OneHotEncoder</t>
+          <t>OrdinalEncoder</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>cosine</t>
+          <t>euclidean</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D111" t="n">
-        <v>0.316</v>
+        <v>0.346</v>
       </c>
       <c r="E111" t="n">
-        <v>0.06999959921572244</v>
+        <v>0.0588856598494809</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>OneHotEncoder</t>
+          <t>OrdinalEncoder</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>euclidean</t>
+          <t>jensenshannon</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D112" t="n">
-        <v>0.339</v>
+        <v>0.295</v>
       </c>
       <c r="E112" t="n">
-        <v>0.05506103318820145</v>
+        <v>0.06945419982258692</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>OneHotEncoder</t>
+          <t>OrdinalEncoder</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>jensenshannon</t>
+          <t>matching</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D113" t="n">
-        <v>0.267</v>
+        <v>0.2</v>
       </c>
       <c r="E113" t="n">
-        <v>0.06395459821229353</v>
+        <v>0.02812731588841736</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>OneHotEncoder</t>
+          <t>OrdinalEncoder</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>matching</t>
+          <t>minkowski</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D114" t="n">
-        <v>0.192</v>
+        <v>0.346</v>
       </c>
       <c r="E114" t="n">
-        <v>0.02863954113389681</v>
+        <v>0.0588856598494809</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>OneHotEncoder</t>
+          <t>OrdinalEncoder</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>minkowski</t>
+          <t>russellrao</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D115" t="n">
-        <v>0.339</v>
+        <v>0.371</v>
       </c>
       <c r="E115" t="n">
-        <v>0.05506103318820145</v>
+        <v>0.04618000309775495</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>OneHotEncoder</t>
+          <t>OrdinalEncoder</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>russellrao</t>
+          <t>seuclidean</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D116" t="n">
-        <v>0.207</v>
+        <v>0.384</v>
       </c>
       <c r="E116" t="n">
-        <v>0.03419055152980695</v>
+        <v>0.07049243352262299</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>OneHotEncoder</t>
+          <t>OrdinalEncoder</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>seuclidean</t>
+          <t>sqeuclidean</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D117" t="n">
-        <v>0.384</v>
+        <v>0.346</v>
       </c>
       <c r="E117" t="n">
-        <v>0.07049243352262299</v>
+        <v>0.0588856598494809</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>OneHotEncoder</t>
+          <t>PolynomialEncoder</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>sqeuclidean</t>
+          <t>braycurtis</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>0.339</v>
+        <v>0.384</v>
       </c>
       <c r="E118" t="n">
-        <v>0.05506103318820145</v>
+        <v>0.07049243352262299</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>OrdinalEncoder</t>
+          <t>PolynomialEncoder</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>braycurtis</t>
+          <t>canberra</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>0.338</v>
+        <v>0.384</v>
       </c>
       <c r="E119" t="n">
-        <v>0.05066850994549563</v>
+        <v>0.07049243352262299</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>OrdinalEncoder</t>
+          <t>PolynomialEncoder</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>canberra</t>
+          <t>chebyshev</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D120" t="n">
-        <v>0.234</v>
+        <v>0.341</v>
       </c>
       <c r="E120" t="n">
-        <v>0.05081948484151818</v>
+        <v>0.05390245725336273</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>OrdinalEncoder</t>
+          <t>PolynomialEncoder</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>chebyshev</t>
+          <t>cityblock</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>0.325</v>
+        <v>0.384</v>
       </c>
       <c r="E121" t="n">
-        <v>0.05918931486965973</v>
+        <v>0.07049243352262299</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>OrdinalEncoder</t>
+          <t>PolynomialEncoder</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>cityblock</t>
+          <t>correlation</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>0.34</v>
+        <v>0.384</v>
       </c>
       <c r="E122" t="n">
-        <v>0.05182309453448734</v>
+        <v>0.07049243352262299</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>OrdinalEncoder</t>
+          <t>PolynomialEncoder</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>correlation</t>
+          <t>cosine</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>0.311</v>
+        <v>0.384</v>
       </c>
       <c r="E123" t="n">
-        <v>0.05380889895662173</v>
+        <v>0.07049243352262299</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>OrdinalEncoder</t>
+          <t>PolynomialEncoder</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>cosine</t>
+          <t>euclidean</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>0.315</v>
+        <v>0.384</v>
       </c>
       <c r="E124" t="n">
-        <v>0.06357234130342355</v>
+        <v>0.07049243352262299</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>OrdinalEncoder</t>
+          <t>PolynomialEncoder</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>euclidean</t>
+          <t>jensenshannon</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>0.346</v>
+        <v>0.384</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0588856598494809</v>
+        <v>0.07049243352262299</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>OrdinalEncoder</t>
+          <t>PolynomialEncoder</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>jensenshannon</t>
+          <t>matching</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D126" t="n">
-        <v>0.295</v>
+        <v>0.198</v>
       </c>
       <c r="E126" t="n">
-        <v>0.06945419982258692</v>
+        <v>0.03214524071214685</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>OrdinalEncoder</t>
+          <t>PolynomialEncoder</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>matching</t>
+          <t>minkowski</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>0.2</v>
+        <v>0.384</v>
       </c>
       <c r="E127" t="n">
-        <v>0.02812731588841736</v>
+        <v>0.07049243352262299</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>OrdinalEncoder</t>
+          <t>PolynomialEncoder</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>minkowski</t>
+          <t>russellrao</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D128" t="n">
-        <v>0.346</v>
+        <v>0.371</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0588856598494809</v>
+        <v>0.04618000309775495</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>OrdinalEncoder</t>
+          <t>PolynomialEncoder</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>russellrao</t>
+          <t>seuclidean</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>0.371</v>
+        <v>0.384</v>
       </c>
       <c r="E129" t="n">
-        <v>0.04618000309775495</v>
+        <v>0.07049243352262299</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>OrdinalEncoder</t>
+          <t>PolynomialEncoder</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>seuclidean</t>
+          <t>sqeuclidean</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -3172,1113 +3172,273 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>OrdinalEncoder</t>
+          <t>SumEncoder</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>sqeuclidean</t>
+          <t>braycurtis</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D131" t="n">
-        <v>0.346</v>
+        <v>0.329</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0588856598494809</v>
+        <v>0.04575977482420881</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>PolynomialEncoder</t>
+          <t>SumEncoder</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>braycurtis</t>
+          <t>canberra</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D132" t="n">
-        <v>0.384</v>
+        <v>0.211</v>
       </c>
       <c r="E132" t="n">
-        <v>0.07049243352262299</v>
+        <v>0.02920390220303086</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>PolynomialEncoder</t>
+          <t>SumEncoder</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>canberra</t>
+          <t>chebyshev</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D133" t="n">
-        <v>0.384</v>
+        <v>0.341</v>
       </c>
       <c r="E133" t="n">
-        <v>0.07049243352262299</v>
+        <v>0.05390245725336273</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>PolynomialEncoder</t>
+          <t>SumEncoder</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>chebyshev</t>
+          <t>cityblock</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D134" t="n">
-        <v>0.341</v>
+        <v>0.325</v>
       </c>
       <c r="E134" t="n">
-        <v>0.05390245725336273</v>
+        <v>0.05406144873222563</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>PolynomialEncoder</t>
+          <t>SumEncoder</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>cityblock</t>
+          <t>correlation</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D135" t="n">
-        <v>0.384</v>
+        <v>0.317</v>
       </c>
       <c r="E135" t="n">
-        <v>0.07049243352262299</v>
+        <v>0.06370987981410497</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>PolynomialEncoder</t>
+          <t>SumEncoder</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>correlation</t>
+          <t>cosine</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D136" t="n">
-        <v>0.384</v>
+        <v>0.317</v>
       </c>
       <c r="E136" t="n">
-        <v>0.07049243352262299</v>
+        <v>0.07077007715882729</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>PolynomialEncoder</t>
+          <t>SumEncoder</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>cosine</t>
+          <t>euclidean</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D137" t="n">
-        <v>0.384</v>
+        <v>0.339</v>
       </c>
       <c r="E137" t="n">
-        <v>0.07049243352262299</v>
+        <v>0.05506103318820145</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>PolynomialEncoder</t>
+          <t>SumEncoder</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>euclidean</t>
+          <t>jensenshannon</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D138" t="n">
-        <v>0.384</v>
+        <v>0.38</v>
       </c>
       <c r="E138" t="n">
-        <v>0.07049243352262299</v>
+        <v>0.0692264527304008</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>PolynomialEncoder</t>
+          <t>SumEncoder</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>jensenshannon</t>
+          <t>matching</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D139" t="n">
-        <v>0.384</v>
+        <v>0.196</v>
       </c>
       <c r="E139" t="n">
-        <v>0.07049243352262299</v>
+        <v>0.02821584742526332</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>PolynomialEncoder</t>
+          <t>SumEncoder</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>matching</t>
+          <t>minkowski</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D140" t="n">
-        <v>0.198</v>
+        <v>0.339</v>
       </c>
       <c r="E140" t="n">
-        <v>0.03214524071214685</v>
+        <v>0.05506103318820145</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>PolynomialEncoder</t>
+          <t>SumEncoder</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>minkowski</t>
+          <t>russellrao</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D141" t="n">
-        <v>0.384</v>
+        <v>0.315</v>
       </c>
       <c r="E141" t="n">
-        <v>0.07049243352262299</v>
+        <v>0.06262890170847063</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>PolynomialEncoder</t>
+          <t>SumEncoder</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>russellrao</t>
+          <t>seuclidean</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>0.371</v>
+        <v>0.384</v>
       </c>
       <c r="E142" t="n">
-        <v>0.04618000309775495</v>
+        <v>0.07049243352262299</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>PolynomialEncoder</t>
+          <t>SumEncoder</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>seuclidean</t>
+          <t>sqeuclidean</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D143" t="n">
-        <v>0.384</v>
+        <v>0.339</v>
       </c>
       <c r="E143" t="n">
-        <v>0.07049243352262299</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>PolynomialEncoder</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>sqeuclidean</t>
-        </is>
-      </c>
-      <c r="C144" t="n">
-        <v>1</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0.384</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.07049243352262299</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>SumEncoder</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>braycurtis</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
-        <v>10</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.04575977482420881</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>SumEncoder</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>canberra</t>
-        </is>
-      </c>
-      <c r="C146" t="n">
-        <v>7</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0.211</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.02920390220303086</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>SumEncoder</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>chebyshev</t>
-        </is>
-      </c>
-      <c r="C147" t="n">
-        <v>22</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.341</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0.05390245725336273</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>SumEncoder</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>cityblock</t>
-        </is>
-      </c>
-      <c r="C148" t="n">
-        <v>12</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0.325</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0.05406144873222563</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>SumEncoder</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>correlation</t>
-        </is>
-      </c>
-      <c r="C149" t="n">
-        <v>12</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0.317</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0.06370987981410497</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>SumEncoder</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>cosine</t>
-        </is>
-      </c>
-      <c r="C150" t="n">
-        <v>53</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0.317</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0.07077007715882729</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>SumEncoder</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>euclidean</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
-        <v>20</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0.339</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0.05506103318820145</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>SumEncoder</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>jensenshannon</t>
-        </is>
-      </c>
-      <c r="C152" t="n">
-        <v>5</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0.0692264527304008</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>SumEncoder</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>matching</t>
-        </is>
-      </c>
-      <c r="C153" t="n">
-        <v>12</v>
-      </c>
-      <c r="D153" t="n">
-        <v>0.196</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0.02821584742526332</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>SumEncoder</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>minkowski</t>
-        </is>
-      </c>
-      <c r="C154" t="n">
-        <v>20</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0.339</v>
-      </c>
-      <c r="E154" t="n">
-        <v>0.05506103318820145</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>SumEncoder</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>russellrao</t>
-        </is>
-      </c>
-      <c r="C155" t="n">
-        <v>3</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0.315</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0.06262890170847063</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>SumEncoder</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>seuclidean</t>
-        </is>
-      </c>
-      <c r="C156" t="n">
-        <v>1</v>
-      </c>
-      <c r="D156" t="n">
-        <v>0.384</v>
-      </c>
-      <c r="E156" t="n">
-        <v>0.07049243352262299</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>SumEncoder</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>sqeuclidean</t>
-        </is>
-      </c>
-      <c r="C157" t="n">
-        <v>20</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0.339</v>
-      </c>
-      <c r="E157" t="n">
-        <v>0.05506103318820145</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>TargetEncoder</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>braycurtis</t>
-        </is>
-      </c>
-      <c r="C158" t="n">
-        <v>12</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0.332</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0.04443849817843955</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>TargetEncoder</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>canberra</t>
-        </is>
-      </c>
-      <c r="C159" t="n">
-        <v>10</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0.173</v>
-      </c>
-      <c r="E159" t="n">
-        <v>0.0363948022732632</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>TargetEncoder</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>chebyshev</t>
-        </is>
-      </c>
-      <c r="C160" t="n">
-        <v>22</v>
-      </c>
-      <c r="D160" t="n">
-        <v>0.341</v>
-      </c>
-      <c r="E160" t="n">
-        <v>0.05390245725336273</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>TargetEncoder</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>cityblock</t>
-        </is>
-      </c>
-      <c r="C161" t="n">
-        <v>14</v>
-      </c>
-      <c r="D161" t="n">
-        <v>0.325</v>
-      </c>
-      <c r="E161" t="n">
-        <v>0.05335627636382026</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>TargetEncoder</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>correlation</t>
-        </is>
-      </c>
-      <c r="C162" t="n">
-        <v>43</v>
-      </c>
-      <c r="D162" t="n">
-        <v>0.314</v>
-      </c>
-      <c r="E162" t="n">
-        <v>0.06574160407932353</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>TargetEncoder</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>cosine</t>
-        </is>
-      </c>
-      <c r="C163" t="n">
-        <v>10</v>
-      </c>
-      <c r="D163" t="n">
-        <v>0.317</v>
-      </c>
-      <c r="E163" t="n">
-        <v>0.06534833564302879</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>TargetEncoder</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>euclidean</t>
-        </is>
-      </c>
-      <c r="C164" t="n">
-        <v>20</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0.339</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0.05506103318820145</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>TargetEncoder</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>jensenshannon</t>
-        </is>
-      </c>
-      <c r="C165" t="n">
-        <v>13</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0.295</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0.0797390855272397</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>TargetEncoder</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>matching</t>
-        </is>
-      </c>
-      <c r="C166" t="n">
-        <v>5</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0.162</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0.02865851427762672</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>TargetEncoder</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>minkowski</t>
-        </is>
-      </c>
-      <c r="C167" t="n">
-        <v>20</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0.339</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0.05506103318820145</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>TargetEncoder</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>russellrao</t>
-        </is>
-      </c>
-      <c r="C168" t="n">
-        <v>43</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0.371</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0.04618000309775495</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>TargetEncoder</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>seuclidean</t>
-        </is>
-      </c>
-      <c r="C169" t="n">
-        <v>1</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0.384</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0.07049243352262299</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>TargetEncoder</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>sqeuclidean</t>
-        </is>
-      </c>
-      <c r="C170" t="n">
-        <v>20</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.339</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0.05506103318820145</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>WOEEncoder</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>braycurtis</t>
-        </is>
-      </c>
-      <c r="C171" t="n">
-        <v>10</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0.324</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0.0474465615012454</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>WOEEncoder</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>canberra</t>
-        </is>
-      </c>
-      <c r="C172" t="n">
-        <v>11</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0.176</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0.03202069776279887</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>WOEEncoder</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>chebyshev</t>
-        </is>
-      </c>
-      <c r="C173" t="n">
-        <v>22</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0.341</v>
-      </c>
-      <c r="E173" t="n">
-        <v>0.05390245725336273</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>WOEEncoder</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>cityblock</t>
-        </is>
-      </c>
-      <c r="C174" t="n">
-        <v>13</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0.319</v>
-      </c>
-      <c r="E174" t="n">
-        <v>0.04837758285696074</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>WOEEncoder</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>correlation</t>
-        </is>
-      </c>
-      <c r="C175" t="n">
-        <v>12</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0.307</v>
-      </c>
-      <c r="E175" t="n">
-        <v>0.06031894216851436</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>WOEEncoder</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>cosine</t>
-        </is>
-      </c>
-      <c r="C176" t="n">
-        <v>7</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0.304</v>
-      </c>
-      <c r="E176" t="n">
-        <v>0.06227490290269935</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>WOEEncoder</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>euclidean</t>
-        </is>
-      </c>
-      <c r="C177" t="n">
-        <v>20</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0.339</v>
-      </c>
-      <c r="E177" t="n">
-        <v>0.05506103318820145</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>WOEEncoder</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>jensenshannon</t>
-        </is>
-      </c>
-      <c r="C178" t="n">
-        <v>3</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0.04721515641746045</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>WOEEncoder</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>matching</t>
-        </is>
-      </c>
-      <c r="C179" t="n">
-        <v>10</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0.158</v>
-      </c>
-      <c r="E179" t="n">
-        <v>0.01784945799054376</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>WOEEncoder</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>minkowski</t>
-        </is>
-      </c>
-      <c r="C180" t="n">
-        <v>20</v>
-      </c>
-      <c r="D180" t="n">
-        <v>0.339</v>
-      </c>
-      <c r="E180" t="n">
-        <v>0.05506103318820145</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>WOEEncoder</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>russellrao</t>
-        </is>
-      </c>
-      <c r="C181" t="n">
-        <v>2</v>
-      </c>
-      <c r="D181" t="n">
-        <v>0.365</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0.06779071740282105</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>WOEEncoder</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>seuclidean</t>
-        </is>
-      </c>
-      <c r="C182" t="n">
-        <v>1</v>
-      </c>
-      <c r="D182" t="n">
-        <v>0.384</v>
-      </c>
-      <c r="E182" t="n">
-        <v>0.07049243352262299</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>WOEEncoder</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>sqeuclidean</t>
-        </is>
-      </c>
-      <c r="C183" t="n">
-        <v>20</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.339</v>
-      </c>
-      <c r="E183" t="n">
         <v>0.05506103318820145</v>
       </c>
     </row>
